--- a/DGP7.xlsx
+++ b/DGP7.xlsx
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.934</v>
+        <v>0.936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.929</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.928</v>
+        <v>0.9245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.936</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.924</v>
+        <v>0.9255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.929</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.934</v>
+        <v>0.936</v>
       </c>
       <c r="G5" t="n">
-        <v>0.939</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.941</v>
+        <v>0.929</v>
       </c>
       <c r="G6" t="n">
-        <v>0.947</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.924</v>
+        <v>0.9265</v>
       </c>
       <c r="G7" t="n">
-        <v>0.931</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.918</v>
+        <v>0.923</v>
       </c>
       <c r="G8" t="n">
-        <v>0.92</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.939</v>
+        <v>0.9315</v>
       </c>
       <c r="G9" t="n">
-        <v>0.945</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.929</v>
+        <v>0.9285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.939</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.92</v>
+        <v>0.926</v>
       </c>
       <c r="G11" t="n">
-        <v>0.93</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>5.62739569598414</v>
+        <v>5.65828304117159</v>
       </c>
       <c r="G12" t="n">
-        <v>5.89157878881031</v>
+        <v>5.89819931667434</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>5.70180230725503</v>
+        <v>5.69045273327649</v>
       </c>
       <c r="G13" t="n">
-        <v>5.93607688803102</v>
+        <v>5.95220461791722</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>5.58788936939822</v>
+        <v>5.59825906831201</v>
       </c>
       <c r="G14" t="n">
-        <v>5.92438522415731</v>
+        <v>5.92197334683444</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>5.60979489465843</v>
+        <v>5.65129956743283</v>
       </c>
       <c r="G15" t="n">
-        <v>5.87213019616884</v>
+        <v>5.9328347090551</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>5.64747166610931</v>
+        <v>5.66747348501843</v>
       </c>
       <c r="G16" t="n">
-        <v>5.89875663323443</v>
+        <v>5.92251244919817</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>5.71059623171586</v>
+        <v>5.6889917788659</v>
       </c>
       <c r="G17" t="n">
-        <v>5.92577603737157</v>
+        <v>5.91342569782117</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>5.65104996439719</v>
+        <v>5.65362439312455</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8847148069867</v>
+        <v>5.91022640504955</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>5.6681399754713</v>
+        <v>5.65635433042419</v>
       </c>
       <c r="G19" t="n">
-        <v>5.96145308243399</v>
+        <v>5.93413745832637</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>5.64826055904336</v>
+        <v>5.69198475188658</v>
       </c>
       <c r="G20" t="n">
-        <v>5.90936551829174</v>
+        <v>5.95130698883724</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>5.65748997978515</v>
+        <v>5.66129410202038</v>
       </c>
       <c r="G21" t="n">
-        <v>5.94759745424431</v>
+        <v>5.93899665086639</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>2.76530610870967</v>
+        <v>2.73496326862808</v>
       </c>
       <c r="G22" t="n">
-        <v>2.84436726656042</v>
+        <v>2.82027709230192</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2.83157798678167</v>
+        <v>2.7200317523103</v>
       </c>
       <c r="G23" t="n">
-        <v>2.89956548488816</v>
+        <v>2.83774768385969</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2.61732760348342</v>
+        <v>2.65158661953894</v>
       </c>
       <c r="G24" t="n">
-        <v>2.77908230310759</v>
+        <v>2.79278382986252</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>2.81905548858556</v>
+        <v>2.72269310671801</v>
       </c>
       <c r="G25" t="n">
-        <v>2.91522227841706</v>
+        <v>2.80904598952275</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>2.84918390896645</v>
+        <v>2.85485444820913</v>
       </c>
       <c r="G26" t="n">
-        <v>2.87090895041455</v>
+        <v>2.87914510988898</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2.81298032732589</v>
+        <v>2.64923568400756</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82894021117178</v>
+        <v>2.68549924303568</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2.85984506233443</v>
+        <v>2.75827077544349</v>
       </c>
       <c r="G28" t="n">
-        <v>2.95884887634181</v>
+        <v>2.84000834415115</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>2.55475215505794</v>
+        <v>2.62728538522671</v>
       </c>
       <c r="G29" t="n">
-        <v>2.67104629249454</v>
+        <v>2.74263791479666</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>2.76735611734522</v>
+        <v>2.79711761885775</v>
       </c>
       <c r="G30" t="n">
-        <v>2.89780419075464</v>
+        <v>2.88982685053694</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>2.97278529045857</v>
+        <v>2.8397800669562</v>
       </c>
       <c r="G31" t="n">
-        <v>3.07228757865244</v>
+        <v>2.92721755657328</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1.20068186848263</v>
+        <v>1.21517357200344</v>
       </c>
       <c r="G32" t="n">
-        <v>1.18869778892228</v>
+        <v>1.21242616248831</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.11556188436837</v>
+        <v>1.13451648938547</v>
       </c>
       <c r="G33" t="n">
-        <v>1.15761343131882</v>
+        <v>1.15133399648718</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>1.17810460314345</v>
+        <v>1.1709125594326</v>
       </c>
       <c r="G34" t="n">
-        <v>1.19528228245211</v>
+        <v>1.21298268595835</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0977681899241</v>
+        <v>1.14926371948321</v>
       </c>
       <c r="G35" t="n">
-        <v>1.13324330990064</v>
+        <v>1.12678875878789</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>1.20225346584622</v>
+        <v>1.20847935055733</v>
       </c>
       <c r="G36" t="n">
-        <v>1.19622542173096</v>
+        <v>1.20004837218865</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1.18611041297837</v>
+        <v>1.13209249321432</v>
       </c>
       <c r="G37" t="n">
-        <v>1.17749607812425</v>
+        <v>1.13965589051087</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>1.11863529717777</v>
+        <v>1.10504885345386</v>
       </c>
       <c r="G38" t="n">
-        <v>1.12716197598087</v>
+        <v>1.12181802100116</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>1.12242068836546</v>
+        <v>1.16522630736903</v>
       </c>
       <c r="G39" t="n">
-        <v>1.17538165241832</v>
+        <v>1.18020718236134</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>1.15126164607401</v>
+        <v>1.15793966404468</v>
       </c>
       <c r="G40" t="n">
-        <v>1.16649781458434</v>
+        <v>1.18146766810265</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.22979523783248</v>
+        <v>1.22058656922742</v>
       </c>
       <c r="G41" t="n">
-        <v>1.21905224539679</v>
+        <v>1.20744079535644</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.949</v>
+        <v>0.9345</v>
       </c>
       <c r="G42" t="n">
-        <v>0.954</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.938</v>
+        <v>0.945</v>
       </c>
       <c r="G43" t="n">
-        <v>0.945</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.941</v>
+        <v>0.9425</v>
       </c>
       <c r="G44" t="n">
-        <v>0.951</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.934</v>
+        <v>0.9395</v>
       </c>
       <c r="G45" t="n">
-        <v>0.935</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.957</v>
+        <v>0.9485</v>
       </c>
       <c r="G46" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.949</v>
+        <v>0.9345</v>
       </c>
       <c r="G47" t="n">
-        <v>0.951</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.942</v>
+        <v>0.945</v>
       </c>
       <c r="G48" t="n">
-        <v>0.944</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.945</v>
+        <v>0.9475</v>
       </c>
       <c r="G49" t="n">
-        <v>0.953</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.954</v>
+        <v>0.948</v>
       </c>
       <c r="G50" t="n">
-        <v>0.957</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="G51" t="n">
-        <v>0.951</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>5.62120117324826</v>
+        <v>5.53249913771727</v>
       </c>
       <c r="G52" t="n">
-        <v>5.89015239985447</v>
+        <v>5.77477207604734</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>5.59163242901923</v>
+        <v>5.59262170278388</v>
       </c>
       <c r="G53" t="n">
-        <v>5.88334399866292</v>
+        <v>5.83323140861649</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>5.55058791783434</v>
+        <v>5.56662362134126</v>
       </c>
       <c r="G54" t="n">
-        <v>5.80974336772439</v>
+        <v>5.82395278542696</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>5.55837278297472</v>
+        <v>5.57163283080092</v>
       </c>
       <c r="G55" t="n">
-        <v>5.78785350660403</v>
+        <v>5.85269568227267</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>5.64039257585013</v>
+        <v>5.57324076603337</v>
       </c>
       <c r="G56" t="n">
-        <v>5.86863420254614</v>
+        <v>5.82565100616934</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>5.61702150371333</v>
+        <v>5.59809874559628</v>
       </c>
       <c r="G57" t="n">
-        <v>5.84428804095629</v>
+        <v>5.8522987118862</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>5.60180529445306</v>
+        <v>5.58445304362582</v>
       </c>
       <c r="G58" t="n">
-        <v>5.88342860262112</v>
+        <v>5.81830201187493</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>5.62282338905588</v>
+        <v>5.62815407841115</v>
       </c>
       <c r="G59" t="n">
-        <v>5.85080536160185</v>
+        <v>5.86154761781824</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>5.5922091958775</v>
+        <v>5.55899845428864</v>
       </c>
       <c r="G60" t="n">
-        <v>5.8471754903188</v>
+        <v>5.80413306700469</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>5.5829780085003</v>
+        <v>5.57034510605087</v>
       </c>
       <c r="G61" t="n">
-        <v>5.8369975221192</v>
+        <v>5.82111813534034</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2.56808791408812</v>
+        <v>2.71663826375459</v>
       </c>
       <c r="G62" t="n">
-        <v>2.64809595213341</v>
+        <v>2.79424446345301</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2.64945539904011</v>
+        <v>2.5246700024604</v>
       </c>
       <c r="G63" t="n">
-        <v>2.76741381626757</v>
+        <v>2.59253571887419</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>2.67976151325013</v>
+        <v>2.51963626056107</v>
       </c>
       <c r="G64" t="n">
-        <v>2.79081186462168</v>
+        <v>2.5957381770072</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>2.75773968443684</v>
+        <v>2.56794558204904</v>
       </c>
       <c r="G65" t="n">
-        <v>2.85328549045174</v>
+        <v>2.66023968645073</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>2.66074246914175</v>
+        <v>2.50663932710558</v>
       </c>
       <c r="G66" t="n">
-        <v>2.74947031371345</v>
+        <v>2.5699625217802</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>2.66536467778414</v>
+        <v>2.56123399582377</v>
       </c>
       <c r="G67" t="n">
-        <v>2.71448884584903</v>
+        <v>2.62455348690419</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>2.58758517651104</v>
+        <v>2.65832396153698</v>
       </c>
       <c r="G68" t="n">
-        <v>2.69085642832737</v>
+        <v>2.78078095127492</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>2.74425621899213</v>
+        <v>2.68372229169867</v>
       </c>
       <c r="G69" t="n">
-        <v>2.82378934117335</v>
+        <v>2.73019858029581</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>2.47680004597569</v>
+        <v>2.47520456574366</v>
       </c>
       <c r="G70" t="n">
-        <v>2.5211708515178</v>
+        <v>2.53586808607907</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>2.69872425284252</v>
+        <v>2.48113672571955</v>
       </c>
       <c r="G71" t="n">
-        <v>2.77989745015097</v>
+        <v>2.51380794028921</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1.1603001498961</v>
+        <v>1.13274796607381</v>
       </c>
       <c r="G72" t="n">
-        <v>1.15444326907932</v>
+        <v>1.16639852073483</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>1.14824506186247</v>
+        <v>1.12629798445568</v>
       </c>
       <c r="G73" t="n">
-        <v>1.17579511169445</v>
+        <v>1.14694197119449</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.20715142461003</v>
+        <v>1.13756662995262</v>
       </c>
       <c r="G74" t="n">
-        <v>1.2115991236105</v>
+        <v>1.15260214711754</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>1.14872172049127</v>
+        <v>1.15055805336697</v>
       </c>
       <c r="G75" t="n">
-        <v>1.15492752560719</v>
+        <v>1.16418256875002</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>1.1984378875316</v>
+        <v>1.08951391225409</v>
       </c>
       <c r="G76" t="n">
-        <v>1.15723644964338</v>
+        <v>1.11094849868094</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.16490038164567</v>
+        <v>1.1451697362759</v>
       </c>
       <c r="G77" t="n">
-        <v>1.20964183622416</v>
+        <v>1.1575066288897</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>1.10892302736073</v>
+        <v>1.12992717852438</v>
       </c>
       <c r="G78" t="n">
-        <v>1.15151337152866</v>
+        <v>1.17306569075918</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19303161486093</v>
+        <v>1.21080905212899</v>
       </c>
       <c r="G79" t="n">
-        <v>1.24459085071441</v>
+        <v>1.21878540127751</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>1.17493240489748</v>
+        <v>1.10269005461537</v>
       </c>
       <c r="G80" t="n">
-        <v>1.12996563860482</v>
+        <v>1.07798872563966</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>1.10062954675366</v>
+        <v>1.12719623356397</v>
       </c>
       <c r="G81" t="n">
-        <v>1.13332434233243</v>
+        <v>1.1287659757081</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.939</v>
+        <v>0.934</v>
       </c>
       <c r="G82" t="n">
-        <v>0.939</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.931</v>
+        <v>0.9345</v>
       </c>
       <c r="G83" t="n">
-        <v>0.932</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.948</v>
+        <v>0.9435</v>
       </c>
       <c r="G84" t="n">
-        <v>0.954</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.916</v>
+        <v>0.926</v>
       </c>
       <c r="G85" t="n">
-        <v>0.924</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.937</v>
+        <v>0.9305</v>
       </c>
       <c r="G86" t="n">
-        <v>0.934</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.948</v>
+        <v>0.9485</v>
       </c>
       <c r="G87" t="n">
-        <v>0.944</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.936</v>
+        <v>0.9355</v>
       </c>
       <c r="G88" t="n">
-        <v>0.937</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.927</v>
+        <v>0.929</v>
       </c>
       <c r="G89" t="n">
-        <v>0.935</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.934</v>
+        <v>0.932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.938</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.933</v>
+        <v>0.928</v>
       </c>
       <c r="G91" t="n">
-        <v>0.94</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>5.71347128960253</v>
+        <v>5.71674211526345</v>
       </c>
       <c r="G92" t="n">
-        <v>5.98877156846657</v>
+        <v>5.97179010861502</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>5.74725704704667</v>
+        <v>5.72857169947697</v>
       </c>
       <c r="G93" t="n">
-        <v>5.95897093851106</v>
+        <v>5.96109809320004</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>5.72669782065946</v>
+        <v>5.70093772563479</v>
       </c>
       <c r="G94" t="n">
-        <v>5.95135625958092</v>
+        <v>5.93805584204086</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>5.66315829671783</v>
+        <v>5.67251225136093</v>
       </c>
       <c r="G95" t="n">
-        <v>5.91938892007697</v>
+        <v>5.9378209283274</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>5.71831380571931</v>
+        <v>5.71291118153854</v>
       </c>
       <c r="G96" t="n">
-        <v>5.95629012436601</v>
+        <v>5.98677459628629</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>5.70399826848826</v>
+        <v>5.70565583973734</v>
       </c>
       <c r="G97" t="n">
-        <v>6.01431387349366</v>
+        <v>5.98915555766776</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>5.74561022378813</v>
+        <v>5.72738447128955</v>
       </c>
       <c r="G98" t="n">
-        <v>5.98490946770222</v>
+        <v>5.98669384133691</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>5.69758259886764</v>
+        <v>5.67700246580099</v>
       </c>
       <c r="G99" t="n">
-        <v>5.99967740434862</v>
+        <v>5.97854448734817</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>5.64562977757372</v>
+        <v>5.66486289440855</v>
       </c>
       <c r="G100" t="n">
-        <v>5.97070917690369</v>
+        <v>5.96946085047825</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>5.73691768209112</v>
+        <v>5.69741576205561</v>
       </c>
       <c r="G101" t="n">
-        <v>5.9994221639259</v>
+        <v>5.9518096340517</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>2.62043151396676</v>
+        <v>2.68420765316351</v>
       </c>
       <c r="G102" t="n">
-        <v>2.72624102374596</v>
+        <v>2.78744703061712</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2.63699870811267</v>
+        <v>2.67988747114256</v>
       </c>
       <c r="G103" t="n">
-        <v>2.79982666878191</v>
+        <v>2.82021152613703</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>2.59700276209974</v>
+        <v>2.6262053368871</v>
       </c>
       <c r="G104" t="n">
-        <v>2.70898472770685</v>
+        <v>2.71832402825408</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>2.54992542781555</v>
+        <v>2.55414015962079</v>
       </c>
       <c r="G105" t="n">
-        <v>2.69581616658065</v>
+        <v>2.69408211823568</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>2.7259672952976</v>
+        <v>2.73928742036464</v>
       </c>
       <c r="G106" t="n">
-        <v>2.86305537704982</v>
+        <v>2.8664258163751</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>2.69482990124151</v>
+        <v>2.66246969990348</v>
       </c>
       <c r="G107" t="n">
-        <v>2.8481073877815</v>
+        <v>2.79920022087476</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2.65478736981277</v>
+        <v>2.65650238073048</v>
       </c>
       <c r="G108" t="n">
-        <v>2.76098711667546</v>
+        <v>2.75666529721142</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>2.63812877208707</v>
+        <v>2.59526304788897</v>
       </c>
       <c r="G109" t="n">
-        <v>2.72814285056461</v>
+        <v>2.69201237140086</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>2.75796338178307</v>
+        <v>2.69984420831142</v>
       </c>
       <c r="G110" t="n">
-        <v>2.83905937693055</v>
+        <v>2.76903946233194</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2.47376905882423</v>
+        <v>2.73258373318965</v>
       </c>
       <c r="G111" t="n">
-        <v>2.53851449865878</v>
+        <v>2.84469509256346</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18591694436017</v>
+        <v>1.16704980236149</v>
       </c>
       <c r="G112" t="n">
-        <v>1.18424114538182</v>
+        <v>1.17206916707715</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>1.20123091738927</v>
+        <v>1.20272966601039</v>
       </c>
       <c r="G113" t="n">
-        <v>1.18784299985842</v>
+        <v>1.19034095600125</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>1.18838370693793</v>
+        <v>1.17807562406287</v>
       </c>
       <c r="G114" t="n">
-        <v>1.19155908692569</v>
+        <v>1.18956900254255</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>1.13834882041125</v>
+        <v>1.14438715207008</v>
       </c>
       <c r="G115" t="n">
-        <v>1.12705596531681</v>
+        <v>1.12792738182161</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>1.17761908372015</v>
+        <v>1.17929417329002</v>
       </c>
       <c r="G116" t="n">
-        <v>1.20082410299004</v>
+        <v>1.2002194034777</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>1.19000501834219</v>
+        <v>1.14523304846176</v>
       </c>
       <c r="G117" t="n">
-        <v>1.2166139819356</v>
+        <v>1.16822932504102</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>1.20831194967518</v>
+        <v>1.1476749736591</v>
       </c>
       <c r="G118" t="n">
-        <v>1.19776791693871</v>
+        <v>1.17394623811119</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>1.13006642005856</v>
+        <v>1.12654824080584</v>
       </c>
       <c r="G119" t="n">
-        <v>1.12305198278093</v>
+        <v>1.14542212925836</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.24689266155721</v>
+        <v>1.23720573581033</v>
       </c>
       <c r="G120" t="n">
-        <v>1.23358460672582</v>
+        <v>1.23322857964608</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>1.10426558325973</v>
+        <v>1.14496004298893</v>
       </c>
       <c r="G121" t="n">
-        <v>1.10135688695923</v>
+        <v>1.14650445028537</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.958</v>
+        <v>0.9475</v>
       </c>
       <c r="G122" t="n">
-        <v>0.956</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.956</v>
+        <v>0.9525</v>
       </c>
       <c r="G123" t="n">
-        <v>0.956</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.953</v>
+        <v>0.9525</v>
       </c>
       <c r="G124" t="n">
-        <v>0.956</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.947</v>
+        <v>0.9475</v>
       </c>
       <c r="G125" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.941</v>
+        <v>0.949</v>
       </c>
       <c r="G126" t="n">
-        <v>0.951</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.953</v>
+        <v>0.945</v>
       </c>
       <c r="G127" t="n">
-        <v>0.956</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.936</v>
+        <v>0.9435</v>
       </c>
       <c r="G128" t="n">
-        <v>0.946</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.96</v>
+        <v>0.946</v>
       </c>
       <c r="G129" t="n">
-        <v>0.963</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.952</v>
+        <v>0.9505</v>
       </c>
       <c r="G130" t="n">
-        <v>0.96</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.939</v>
+        <v>0.952</v>
       </c>
       <c r="G131" t="n">
-        <v>0.941</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>5.53152253583719</v>
+        <v>5.44407344737395</v>
       </c>
       <c r="G132" t="n">
-        <v>5.738202063528</v>
+        <v>5.66233948884281</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>5.50343658192071</v>
+        <v>5.45217119505309</v>
       </c>
       <c r="G133" t="n">
-        <v>5.75318048478055</v>
+        <v>5.66451515495776</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>5.50505678430392</v>
+        <v>5.46443922827898</v>
       </c>
       <c r="G134" t="n">
-        <v>5.73358895949537</v>
+        <v>5.68119807971341</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>5.51509255283434</v>
+        <v>5.46560672781793</v>
       </c>
       <c r="G135" t="n">
-        <v>5.76157365023741</v>
+        <v>5.66969154874841</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>5.4643096300017</v>
+        <v>5.50161761012382</v>
       </c>
       <c r="G136" t="n">
-        <v>5.73935215183506</v>
+        <v>5.72829723217576</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>5.47645997574565</v>
+        <v>5.46778023860173</v>
       </c>
       <c r="G137" t="n">
-        <v>5.74464920762658</v>
+        <v>5.70940325371522</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>5.47021079313903</v>
+        <v>5.44717065023807</v>
       </c>
       <c r="G138" t="n">
-        <v>5.76168468765649</v>
+        <v>5.67782991039134</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>5.50087446904772</v>
+        <v>5.45213278601481</v>
       </c>
       <c r="G139" t="n">
-        <v>5.77573909427876</v>
+        <v>5.68925327111104</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>5.45487646645277</v>
+        <v>5.43215602479963</v>
       </c>
       <c r="G140" t="n">
-        <v>5.74650242688321</v>
+        <v>5.66879556221054</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>5.48229994333034</v>
+        <v>5.44755399125985</v>
       </c>
       <c r="G141" t="n">
-        <v>5.71802032276547</v>
+        <v>5.71607689433742</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>2.51569685361139</v>
+        <v>2.61763641959601</v>
       </c>
       <c r="G142" t="n">
-        <v>2.64612503685871</v>
+        <v>2.6516368661073</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>2.32593536982661</v>
+        <v>2.52076632677441</v>
       </c>
       <c r="G143" t="n">
-        <v>2.42571684729104</v>
+        <v>2.63873826630278</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>2.5419132063268</v>
+        <v>2.46716471479438</v>
       </c>
       <c r="G144" t="n">
-        <v>2.60627644624991</v>
+        <v>2.54262365048854</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>2.47115871260842</v>
+        <v>2.6034541333189</v>
       </c>
       <c r="G145" t="n">
-        <v>2.60182423943873</v>
+        <v>2.66397210429371</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>2.60132036521531</v>
+        <v>2.5107149407459</v>
       </c>
       <c r="G146" t="n">
-        <v>2.71192076336707</v>
+        <v>2.55549817819245</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>2.51520826764956</v>
+        <v>2.47417766099675</v>
       </c>
       <c r="G147" t="n">
-        <v>2.61134867733355</v>
+        <v>2.55529916311349</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>2.64435726775013</v>
+        <v>2.47420529870279</v>
       </c>
       <c r="G148" t="n">
-        <v>2.66828844046868</v>
+        <v>2.56908779105035</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>2.35825312435339</v>
+        <v>2.39483391712297</v>
       </c>
       <c r="G149" t="n">
-        <v>2.50830266931645</v>
+        <v>2.46934534586257</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>2.25251972879327</v>
+        <v>2.36976936578512</v>
       </c>
       <c r="G150" t="n">
-        <v>2.25875216506006</v>
+        <v>2.44709129911217</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>2.55960981098602</v>
+        <v>2.43503652755054</v>
       </c>
       <c r="G151" t="n">
-        <v>2.67650940194889</v>
+        <v>2.49144606665477</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>1.10539604918068</v>
+        <v>1.17628528424316</v>
       </c>
       <c r="G152" t="n">
-        <v>1.14486842361824</v>
+        <v>1.17513868263826</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>1.12925921373072</v>
+        <v>1.21071957702016</v>
       </c>
       <c r="G153" t="n">
-        <v>1.14136831931347</v>
+        <v>1.2241755373421</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>1.09864043592579</v>
+        <v>1.11832333460233</v>
       </c>
       <c r="G154" t="n">
-        <v>1.12869222179961</v>
+        <v>1.12146592557691</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>1.13189261726765</v>
+        <v>1.15616832880948</v>
       </c>
       <c r="G155" t="n">
-        <v>1.17247045816953</v>
+        <v>1.1668318863011</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>1.20703478835819</v>
+        <v>1.12969837390576</v>
       </c>
       <c r="G156" t="n">
-        <v>1.22784078445863</v>
+        <v>1.13116143518755</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>1.15504279131475</v>
+        <v>1.13194779661205</v>
       </c>
       <c r="G157" t="n">
-        <v>1.20158068796692</v>
+        <v>1.11064003944817</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>1.17347953327011</v>
+        <v>1.16410052239363</v>
       </c>
       <c r="G158" t="n">
-        <v>1.14557882559144</v>
+        <v>1.15249488168784</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>0.994229104338325</v>
+        <v>1.09566880693696</v>
       </c>
       <c r="G159" t="n">
-        <v>1.00243709301647</v>
+        <v>1.10230023382427</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>1.06024174370614</v>
+        <v>1.13097857463878</v>
       </c>
       <c r="G160" t="n">
-        <v>1.03623158114283</v>
+        <v>1.13531288669672</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>1.13055551953734</v>
+        <v>1.12590907906786</v>
       </c>
       <c r="G161" t="n">
-        <v>1.1551398272602</v>
+        <v>1.13960507637874</v>
       </c>
     </row>
   </sheetData>

--- a/DGP7.xlsx
+++ b/DGP7.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.936</v>
+        <v>0.905</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9315</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9245</v>
+        <v>0.8945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.931</v>
+        <v>0.9085</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9255</v>
+        <v>0.8815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.932</v>
+        <v>0.8935</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.936</v>
+        <v>0.8705</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9385</v>
+        <v>0.8885</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.929</v>
+        <v>0.8635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9355</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9265</v>
+        <v>0.8515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9295</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.923</v>
+        <v>0.846</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9315</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9315</v>
+        <v>0.852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9355</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9285</v>
+        <v>0.857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9375</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.926</v>
+        <v>0.8515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.932</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>5.65828304117159</v>
+        <v>35.0982863791545</v>
       </c>
       <c r="G12" t="n">
-        <v>5.89819931667434</v>
+        <v>36.4733301738481</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>5.69045273327649</v>
+        <v>35.8275868182158</v>
       </c>
       <c r="G13" t="n">
-        <v>5.95220461791722</v>
+        <v>37.2419769149514</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>5.59825906831201</v>
+        <v>36.0221764824479</v>
       </c>
       <c r="G14" t="n">
-        <v>5.92197334683444</v>
+        <v>37.4168595852482</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>5.65129956743283</v>
+        <v>35.760772488733</v>
       </c>
       <c r="G15" t="n">
-        <v>5.9328347090551</v>
+        <v>37.2666075911716</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>5.66747348501843</v>
+        <v>35.9024991533127</v>
       </c>
       <c r="G16" t="n">
-        <v>5.92251244919817</v>
+        <v>37.3756550468489</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>5.6889917788659</v>
+        <v>35.7973855107812</v>
       </c>
       <c r="G17" t="n">
-        <v>5.91342569782117</v>
+        <v>37.2680537676114</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>5.65362439312455</v>
+        <v>35.6819569507751</v>
       </c>
       <c r="G18" t="n">
-        <v>5.91022640504955</v>
+        <v>37.1254740352338</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>5.65635433042419</v>
+        <v>35.7691305695761</v>
       </c>
       <c r="G19" t="n">
-        <v>5.93413745832637</v>
+        <v>37.2651130820535</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>5.69198475188658</v>
+        <v>36.0756584656062</v>
       </c>
       <c r="G20" t="n">
-        <v>5.95130698883724</v>
+        <v>37.4308391152178</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>5.66129410202038</v>
+        <v>35.740832736576</v>
       </c>
       <c r="G21" t="n">
-        <v>5.93899665086639</v>
+        <v>37.3927216761279</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>2.73496326862808</v>
+        <v>74.4749449167989</v>
       </c>
       <c r="G22" t="n">
-        <v>2.82027709230192</v>
+        <v>60.2608958405458</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2.7200317523103</v>
+        <v>92.9148985082444</v>
       </c>
       <c r="G23" t="n">
-        <v>2.83774768385969</v>
+        <v>77.8284654071549</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2.65158661953894</v>
+        <v>103.877904140106</v>
       </c>
       <c r="G24" t="n">
-        <v>2.79278382986252</v>
+        <v>88.3264635301833</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>2.72269310671801</v>
+        <v>123.963320653633</v>
       </c>
       <c r="G25" t="n">
-        <v>2.80904598952275</v>
+        <v>102.856164150814</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>2.85485444820913</v>
+        <v>140.611821440682</v>
       </c>
       <c r="G26" t="n">
-        <v>2.87914510988898</v>
+        <v>119.368010690803</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2.64923568400756</v>
+        <v>149.708051819309</v>
       </c>
       <c r="G27" t="n">
-        <v>2.68549924303568</v>
+        <v>131.387829388145</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2.75827077544349</v>
+        <v>170.082336953196</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84000834415115</v>
+        <v>149.977296142488</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>2.62728538522671</v>
+        <v>172.140598680902</v>
       </c>
       <c r="G29" t="n">
-        <v>2.74263791479666</v>
+        <v>155.226114909841</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>2.79711761885775</v>
+        <v>175.547348639107</v>
       </c>
       <c r="G30" t="n">
-        <v>2.88982685053694</v>
+        <v>158.979725689962</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>2.8397800669562</v>
+        <v>173.320215179504</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92721755657328</v>
+        <v>158.893784765762</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1.21517357200344</v>
+        <v>4.73314653225325</v>
       </c>
       <c r="G32" t="n">
-        <v>1.21242616248831</v>
+        <v>4.29954158072277</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.13451648938547</v>
+        <v>5.04638986185751</v>
       </c>
       <c r="G33" t="n">
-        <v>1.15133399648718</v>
+        <v>4.42691475217872</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>1.1709125594326</v>
+        <v>5.03079917358189</v>
       </c>
       <c r="G34" t="n">
-        <v>1.21298268595835</v>
+        <v>4.47910189210793</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>1.14926371948321</v>
+        <v>5.32035163548029</v>
       </c>
       <c r="G35" t="n">
-        <v>1.12678875878789</v>
+        <v>4.71178545218728</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>1.20847935055733</v>
+        <v>5.43699721941208</v>
       </c>
       <c r="G36" t="n">
-        <v>1.20004837218865</v>
+        <v>4.79825583649993</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1.13209249321432</v>
+        <v>5.42568408761497</v>
       </c>
       <c r="G37" t="n">
-        <v>1.13965589051087</v>
+        <v>5.00350989365236</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>1.10504885345386</v>
+        <v>5.61170923811024</v>
       </c>
       <c r="G38" t="n">
-        <v>1.12181802100116</v>
+        <v>5.1000481105407</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>1.16522630736903</v>
+        <v>5.56636270575188</v>
       </c>
       <c r="G39" t="n">
-        <v>1.18020718236134</v>
+        <v>5.00794986888384</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>1.15793966404468</v>
+        <v>5.47976706897923</v>
       </c>
       <c r="G40" t="n">
-        <v>1.18146766810265</v>
+        <v>5.1103049573982</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.22058656922742</v>
+        <v>5.63112893391703</v>
       </c>
       <c r="G41" t="n">
-        <v>1.20744079535644</v>
+        <v>5.12180517078787</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9345</v>
+        <v>0.9225</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9375</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.945</v>
+        <v>0.91</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9515</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9425</v>
+        <v>0.9115</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9505</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9395</v>
+        <v>0.905</v>
       </c>
       <c r="G45" t="n">
-        <v>0.948</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9485</v>
+        <v>0.911</v>
       </c>
       <c r="G46" t="n">
-        <v>0.95</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9345</v>
+        <v>0.9065</v>
       </c>
       <c r="G47" t="n">
-        <v>0.943</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.945</v>
+        <v>0.908</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9465</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9475</v>
+        <v>0.908</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9545</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.948</v>
+        <v>0.9005</v>
       </c>
       <c r="G50" t="n">
-        <v>0.951</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.946</v>
+        <v>0.9005</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9495</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>5.53249913771727</v>
+        <v>33.1687091695329</v>
       </c>
       <c r="G52" t="n">
-        <v>5.77477207604734</v>
+        <v>33.0604693495968</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>5.59262170278388</v>
+        <v>33.8402617573452</v>
       </c>
       <c r="G53" t="n">
-        <v>5.83323140861649</v>
+        <v>33.888938129487</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>5.56662362134126</v>
+        <v>34.1714551699174</v>
       </c>
       <c r="G54" t="n">
-        <v>5.82395278542696</v>
+        <v>34.183572817332</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>5.57163283080092</v>
+        <v>34.0821137997001</v>
       </c>
       <c r="G55" t="n">
-        <v>5.85269568227267</v>
+        <v>34.355380069223</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>5.57324076603337</v>
+        <v>33.998803325475</v>
       </c>
       <c r="G56" t="n">
-        <v>5.82565100616934</v>
+        <v>34.2137895451439</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>5.59809874559628</v>
+        <v>33.7594548929477</v>
       </c>
       <c r="G57" t="n">
-        <v>5.8522987118862</v>
+        <v>33.9032715298836</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>5.58445304362582</v>
+        <v>33.4927303723789</v>
       </c>
       <c r="G58" t="n">
-        <v>5.81830201187493</v>
+        <v>33.82359405536</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>5.62815407841115</v>
+        <v>33.6725380441267</v>
       </c>
       <c r="G59" t="n">
-        <v>5.86154761781824</v>
+        <v>33.8576966173083</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>5.55899845428864</v>
+        <v>33.5738969304257</v>
       </c>
       <c r="G60" t="n">
-        <v>5.80413306700469</v>
+        <v>33.8606868688249</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>5.57034510605087</v>
+        <v>33.8559762585315</v>
       </c>
       <c r="G61" t="n">
-        <v>5.82111813534034</v>
+        <v>33.9703631903625</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2.71663826375459</v>
+        <v>62.9508242775598</v>
       </c>
       <c r="G62" t="n">
-        <v>2.79424446345301</v>
+        <v>45.0643939631959</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2.5246700024604</v>
+        <v>79.0459618285021</v>
       </c>
       <c r="G63" t="n">
-        <v>2.59253571887419</v>
+        <v>59.5745865151192</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>2.51963626056107</v>
+        <v>86.7561289794606</v>
       </c>
       <c r="G64" t="n">
-        <v>2.5957381770072</v>
+        <v>66.7257590545946</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>2.56794558204904</v>
+        <v>92.2164688528719</v>
       </c>
       <c r="G65" t="n">
-        <v>2.66023968645073</v>
+        <v>70.9866808721873</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>2.50663932710558</v>
+        <v>94.6439590761127</v>
       </c>
       <c r="G66" t="n">
-        <v>2.5699625217802</v>
+        <v>72.4732529478147</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>2.56123399582377</v>
+        <v>97.0595448922226</v>
       </c>
       <c r="G67" t="n">
-        <v>2.62455348690419</v>
+        <v>73.2507590279072</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>2.65832396153698</v>
+        <v>98.2874585166318</v>
       </c>
       <c r="G68" t="n">
-        <v>2.78078095127492</v>
+        <v>75.2890784048955</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>2.68372229169867</v>
+        <v>101.62000537437</v>
       </c>
       <c r="G69" t="n">
-        <v>2.73019858029581</v>
+        <v>78.6812233253419</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>2.47520456574366</v>
+        <v>99.9960939075263</v>
       </c>
       <c r="G70" t="n">
-        <v>2.53586808607907</v>
+        <v>79.0475270231361</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>2.48113672571955</v>
+        <v>103.645926336967</v>
       </c>
       <c r="G71" t="n">
-        <v>2.51380794028921</v>
+        <v>82.0480518201833</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1.13274796607381</v>
+        <v>4.74201764028004</v>
       </c>
       <c r="G72" t="n">
-        <v>1.16639852073483</v>
+        <v>3.61842488832408</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>1.12629798445568</v>
+        <v>4.84461003215755</v>
       </c>
       <c r="G73" t="n">
-        <v>1.14694197119449</v>
+        <v>3.74820761231325</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.13756662995262</v>
+        <v>5.22835443147959</v>
       </c>
       <c r="G74" t="n">
-        <v>1.15260214711754</v>
+        <v>4.10727359788616</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>1.15055805336697</v>
+        <v>5.10116860627916</v>
       </c>
       <c r="G75" t="n">
-        <v>1.16418256875002</v>
+        <v>3.96069144689337</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>1.08951391225409</v>
+        <v>4.96330467761479</v>
       </c>
       <c r="G76" t="n">
-        <v>1.11094849868094</v>
+        <v>3.98697773848097</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.1451697362759</v>
+        <v>5.07052844064793</v>
       </c>
       <c r="G77" t="n">
-        <v>1.1575066288897</v>
+        <v>3.88687434256863</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>1.12992717852438</v>
+        <v>4.83563994034562</v>
       </c>
       <c r="G78" t="n">
-        <v>1.17306569075918</v>
+        <v>3.91691166101457</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>1.21080905212899</v>
+        <v>5.05646970292028</v>
       </c>
       <c r="G79" t="n">
-        <v>1.21878540127751</v>
+        <v>4.21093112370892</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>1.10269005461537</v>
+        <v>5.08031507577465</v>
       </c>
       <c r="G80" t="n">
-        <v>1.07798872563966</v>
+        <v>4.04071820825445</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>1.12719623356397</v>
+        <v>5.18084041117127</v>
       </c>
       <c r="G81" t="n">
-        <v>1.1287659757081</v>
+        <v>4.08616456292327</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.934</v>
+        <v>0.905</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9405</v>
+        <v>0.9155</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9345</v>
+        <v>0.8785</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9375</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9435</v>
+        <v>0.8785</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9475</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.926</v>
+        <v>0.871</v>
       </c>
       <c r="G85" t="n">
-        <v>0.933</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9305</v>
+        <v>0.861</v>
       </c>
       <c r="G86" t="n">
-        <v>0.931</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9485</v>
+        <v>0.8565</v>
       </c>
       <c r="G87" t="n">
-        <v>0.943</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9355</v>
+        <v>0.8565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.938</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.929</v>
+        <v>0.864</v>
       </c>
       <c r="G89" t="n">
-        <v>0.936</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.932</v>
+        <v>0.8575</v>
       </c>
       <c r="G90" t="n">
-        <v>0.936</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.928</v>
+        <v>0.859</v>
       </c>
       <c r="G91" t="n">
-        <v>0.929</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>5.71674211526345</v>
+        <v>35.0648461822926</v>
       </c>
       <c r="G92" t="n">
-        <v>5.97179010861502</v>
+        <v>36.8591522714004</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>5.72857169947697</v>
+        <v>35.674995350735</v>
       </c>
       <c r="G93" t="n">
-        <v>5.96109809320004</v>
+        <v>37.5837433377108</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>5.70093772563479</v>
+        <v>35.4956162083376</v>
       </c>
       <c r="G94" t="n">
-        <v>5.93805584204086</v>
+        <v>37.4386700775072</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>5.67251225136093</v>
+        <v>35.6753755528801</v>
       </c>
       <c r="G95" t="n">
-        <v>5.9378209283274</v>
+        <v>37.6721853202077</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>5.71291118153854</v>
+        <v>35.7952282113963</v>
       </c>
       <c r="G96" t="n">
-        <v>5.98677459628629</v>
+        <v>37.5631462890476</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>5.70565583973734</v>
+        <v>35.7052887545307</v>
       </c>
       <c r="G97" t="n">
-        <v>5.98915555766776</v>
+        <v>37.8392813871495</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>5.72738447128955</v>
+        <v>35.5581184577078</v>
       </c>
       <c r="G98" t="n">
-        <v>5.98669384133691</v>
+        <v>37.6658749495528</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>5.67700246580099</v>
+        <v>35.7583533970946</v>
       </c>
       <c r="G99" t="n">
-        <v>5.97854448734817</v>
+        <v>37.5555061018629</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>5.66486289440855</v>
+        <v>35.6713473550687</v>
       </c>
       <c r="G100" t="n">
-        <v>5.96946085047825</v>
+        <v>37.4147070420376</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>5.69741576205561</v>
+        <v>35.551864824723</v>
       </c>
       <c r="G101" t="n">
-        <v>5.9518096340517</v>
+        <v>37.4477406999756</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>2.68420765316351</v>
+        <v>75.3401357657692</v>
       </c>
       <c r="G102" t="n">
-        <v>2.78744703061712</v>
+        <v>67.8068921036045</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2.67988747114256</v>
+        <v>92.7252361371669</v>
       </c>
       <c r="G103" t="n">
-        <v>2.82021152613703</v>
+        <v>84.7073723658225</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>2.6262053368871</v>
+        <v>107.648020925251</v>
       </c>
       <c r="G104" t="n">
-        <v>2.71832402825408</v>
+        <v>97.2583258225538</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>2.55414015962079</v>
+        <v>114.924365372456</v>
       </c>
       <c r="G105" t="n">
-        <v>2.69408211823568</v>
+        <v>104.346924507869</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>2.73928742036464</v>
+        <v>123.191743329081</v>
       </c>
       <c r="G106" t="n">
-        <v>2.8664258163751</v>
+        <v>116.474977058337</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>2.66246969990348</v>
+        <v>128.909152957867</v>
       </c>
       <c r="G107" t="n">
-        <v>2.79920022087476</v>
+        <v>120.383195294628</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2.65650238073048</v>
+        <v>125.064853601089</v>
       </c>
       <c r="G108" t="n">
-        <v>2.75666529721142</v>
+        <v>117.320675437727</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>2.59526304788897</v>
+        <v>131.766986601032</v>
       </c>
       <c r="G109" t="n">
-        <v>2.69201237140086</v>
+        <v>122.057278165408</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>2.69984420831142</v>
+        <v>132.232338569259</v>
       </c>
       <c r="G110" t="n">
-        <v>2.76903946233194</v>
+        <v>122.811893365983</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2.73258373318965</v>
+        <v>136.397553563903</v>
       </c>
       <c r="G111" t="n">
-        <v>2.84469509256346</v>
+        <v>128.199781537166</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>1.16704980236149</v>
+        <v>4.81307777618471</v>
       </c>
       <c r="G112" t="n">
-        <v>1.17206916707715</v>
+        <v>4.37969851304957</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>1.20272966601039</v>
+        <v>5.23026265613</v>
       </c>
       <c r="G113" t="n">
-        <v>1.19034095600125</v>
+        <v>4.66675680080935</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17807562406287</v>
+        <v>5.3835560286684</v>
       </c>
       <c r="G114" t="n">
-        <v>1.18956900254255</v>
+        <v>4.83909483020971</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>1.14438715207008</v>
+        <v>5.50652853415162</v>
       </c>
       <c r="G115" t="n">
-        <v>1.12792738182161</v>
+        <v>5.1036764466599</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>1.17929417329002</v>
+        <v>5.58242993695613</v>
       </c>
       <c r="G116" t="n">
-        <v>1.2002194034777</v>
+        <v>5.19786203008445</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>1.14523304846176</v>
+        <v>5.48473631601191</v>
       </c>
       <c r="G117" t="n">
-        <v>1.16822932504102</v>
+        <v>5.14581893710994</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>1.1476749736591</v>
+        <v>5.42353939532824</v>
       </c>
       <c r="G118" t="n">
-        <v>1.17394623811119</v>
+        <v>5.03036003832841</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>1.12654824080584</v>
+        <v>5.83501475595154</v>
       </c>
       <c r="G119" t="n">
-        <v>1.14542212925836</v>
+        <v>5.21182973360795</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.23720573581033</v>
+        <v>5.51807119467203</v>
       </c>
       <c r="G120" t="n">
-        <v>1.23322857964608</v>
+        <v>5.08316479029982</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>1.14496004298893</v>
+        <v>5.46799943357294</v>
       </c>
       <c r="G121" t="n">
-        <v>1.14650445028537</v>
+        <v>5.02384516127667</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9475</v>
+        <v>0.9305</v>
       </c>
       <c r="G122" t="n">
-        <v>0.948</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9525</v>
+        <v>0.9185</v>
       </c>
       <c r="G123" t="n">
-        <v>0.955</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9525</v>
+        <v>0.9065</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9485</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9475</v>
+        <v>0.905</v>
       </c>
       <c r="G125" t="n">
-        <v>0.946</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.949</v>
+        <v>0.91</v>
       </c>
       <c r="G126" t="n">
-        <v>0.945</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.945</v>
+        <v>0.8985</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9525</v>
+        <v>0.9155</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9435</v>
+        <v>0.902</v>
       </c>
       <c r="G128" t="n">
-        <v>0.949</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.946</v>
+        <v>0.899</v>
       </c>
       <c r="G129" t="n">
-        <v>0.95</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9505</v>
+        <v>0.898</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9565</v>
+        <v>0.9115</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.952</v>
+        <v>0.9</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9545</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>5.44407344737395</v>
+        <v>32.8172737908828</v>
       </c>
       <c r="G132" t="n">
-        <v>5.66233948884281</v>
+        <v>32.9821417822697</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>5.45217119505309</v>
+        <v>33.0140738850754</v>
       </c>
       <c r="G133" t="n">
-        <v>5.66451515495776</v>
+        <v>33.570270929771</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>5.46443922827898</v>
+        <v>32.9712054558419</v>
       </c>
       <c r="G134" t="n">
-        <v>5.68119807971341</v>
+        <v>33.650944093752</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>5.46560672781793</v>
+        <v>32.9120700560388</v>
       </c>
       <c r="G135" t="n">
-        <v>5.66969154874841</v>
+        <v>33.3539766504604</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>5.50161761012382</v>
+        <v>33.1116151209224</v>
       </c>
       <c r="G136" t="n">
-        <v>5.72829723217576</v>
+        <v>33.5730113874564</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>5.46778023860173</v>
+        <v>33.1151374205026</v>
       </c>
       <c r="G137" t="n">
-        <v>5.70940325371522</v>
+        <v>33.6595966988514</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>5.44717065023807</v>
+        <v>33.1460350801544</v>
       </c>
       <c r="G138" t="n">
-        <v>5.67782991039134</v>
+        <v>33.658557684542</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>5.45213278601481</v>
+        <v>33.0560667673246</v>
       </c>
       <c r="G139" t="n">
-        <v>5.68925327111104</v>
+        <v>33.273922048681</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>5.43215602479963</v>
+        <v>32.8969171515298</v>
       </c>
       <c r="G140" t="n">
-        <v>5.66879556221054</v>
+        <v>33.3471404567088</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>5.44755399125985</v>
+        <v>33.0087324634814</v>
       </c>
       <c r="G141" t="n">
-        <v>5.71607689433742</v>
+        <v>33.6906598924011</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>2.61763641959601</v>
+        <v>53.6175187668309</v>
       </c>
       <c r="G142" t="n">
-        <v>2.6516368661073</v>
+        <v>39.8663513329776</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>2.52076632677441</v>
+        <v>72.1932504461177</v>
       </c>
       <c r="G143" t="n">
-        <v>2.63873826630278</v>
+        <v>56.4977252881331</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>2.46716471479438</v>
+        <v>87.7697010199699</v>
       </c>
       <c r="G144" t="n">
-        <v>2.54262365048854</v>
+        <v>70.0772990272026</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>2.6034541333189</v>
+        <v>92.064759580742</v>
       </c>
       <c r="G145" t="n">
-        <v>2.66397210429371</v>
+        <v>75.0451451638236</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>2.5107149407459</v>
+        <v>95.9466746455034</v>
       </c>
       <c r="G146" t="n">
-        <v>2.55549817819245</v>
+        <v>80.66212928731</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>2.47417766099675</v>
+        <v>104.199222380317</v>
       </c>
       <c r="G147" t="n">
-        <v>2.55529916311349</v>
+        <v>88.8744434436766</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>2.47420529870279</v>
+        <v>109.388895042621</v>
       </c>
       <c r="G148" t="n">
-        <v>2.56908779105035</v>
+        <v>94.8726515866744</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>2.39483391712297</v>
+        <v>100.079527566363</v>
       </c>
       <c r="G149" t="n">
-        <v>2.46934534586257</v>
+        <v>86.0356308386104</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>2.36976936578512</v>
+        <v>98.7866600903044</v>
       </c>
       <c r="G150" t="n">
-        <v>2.44709129911217</v>
+        <v>82.6485019036437</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>2.43503652755054</v>
+        <v>99.7573337364125</v>
       </c>
       <c r="G151" t="n">
-        <v>2.49144606665477</v>
+        <v>83.651751247486</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>1.17628528424316</v>
+        <v>4.34184353822697</v>
       </c>
       <c r="G152" t="n">
-        <v>1.17513868263826</v>
+        <v>3.70571316508084</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>1.21071957702016</v>
+        <v>4.77697052666029</v>
       </c>
       <c r="G153" t="n">
-        <v>1.2241755373421</v>
+        <v>4.00741518209234</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>1.11832333460233</v>
+        <v>4.92961390035701</v>
       </c>
       <c r="G154" t="n">
-        <v>1.12146592557691</v>
+        <v>4.06479667845349</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>1.15616832880948</v>
+        <v>4.80851397295644</v>
       </c>
       <c r="G155" t="n">
-        <v>1.1668318863011</v>
+        <v>4.08697576519064</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>1.12969837390576</v>
+        <v>4.90522816760246</v>
       </c>
       <c r="G156" t="n">
-        <v>1.13116143518755</v>
+        <v>4.08484460541657</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>1.13194779661205</v>
+        <v>5.16678458351156</v>
       </c>
       <c r="G157" t="n">
-        <v>1.11064003944817</v>
+        <v>4.19535209672996</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>1.16410052239363</v>
+        <v>5.01301545703215</v>
       </c>
       <c r="G158" t="n">
-        <v>1.15249488168784</v>
+        <v>4.19016338767158</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>1.09566880693696</v>
+        <v>4.77574360102099</v>
       </c>
       <c r="G159" t="n">
-        <v>1.10230023382427</v>
+        <v>3.95234639603569</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>1.13097857463878</v>
+        <v>4.94208936051076</v>
       </c>
       <c r="G160" t="n">
-        <v>1.13531288669672</v>
+        <v>3.9523362377787</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>1.12590907906786</v>
+        <v>5.19406714774386</v>
       </c>
       <c r="G161" t="n">
-        <v>1.13960507637874</v>
+        <v>4.14652840223478</v>
       </c>
     </row>
   </sheetData>

--- a/DGP7.xlsx
+++ b/DGP7.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.905</v>
+        <v>0.926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.916</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8945</v>
+        <v>0.923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9085</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8815</v>
+        <v>0.9125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8935</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8705</v>
+        <v>0.906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8885</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8635</v>
+        <v>0.9045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.878</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8515</v>
+        <v>0.9075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.863</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.846</v>
+        <v>0.9045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.864</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.852</v>
+        <v>0.9135</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8635</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.857</v>
+        <v>0.9115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.869</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8515</v>
+        <v>0.909</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865</v>
+        <v>0.9395</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>35.0982863791545</v>
+        <v>27.3105464807661</v>
       </c>
       <c r="G12" t="n">
-        <v>36.4733301738481</v>
+        <v>26.7507899233459</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>35.8275868182158</v>
+        <v>27.9437512570956</v>
       </c>
       <c r="G13" t="n">
-        <v>37.2419769149514</v>
+        <v>27.245256725618</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>36.0221764824479</v>
+        <v>27.9333643314627</v>
       </c>
       <c r="G14" t="n">
-        <v>37.4168595852482</v>
+        <v>27.1254640345335</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>35.760772488733</v>
+        <v>28.1207647962731</v>
       </c>
       <c r="G15" t="n">
-        <v>37.2666075911716</v>
+        <v>27.2325165767062</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>35.9024991533127</v>
+        <v>28.4413772592696</v>
       </c>
       <c r="G16" t="n">
-        <v>37.3756550468489</v>
+        <v>27.4611177406048</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>35.7973855107812</v>
+        <v>28.0505958164529</v>
       </c>
       <c r="G17" t="n">
-        <v>37.2680537676114</v>
+        <v>27.4160847898752</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>35.6819569507751</v>
+        <v>28.1937345328169</v>
       </c>
       <c r="G18" t="n">
-        <v>37.1254740352338</v>
+        <v>27.3004001877245</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>35.7691305695761</v>
+        <v>28.2808197848441</v>
       </c>
       <c r="G19" t="n">
-        <v>37.2651130820535</v>
+        <v>27.5392135130375</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>36.0756584656062</v>
+        <v>28.0421584724399</v>
       </c>
       <c r="G20" t="n">
-        <v>37.4308391152178</v>
+        <v>27.7041464391375</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>35.740832736576</v>
+        <v>28.2079741226254</v>
       </c>
       <c r="G21" t="n">
-        <v>37.3927216761279</v>
+        <v>27.5176833016935</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>74.4749449167989</v>
+        <v>44.9836472909073</v>
       </c>
       <c r="G22" t="n">
-        <v>60.2608958405458</v>
+        <v>28.0183153526023</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>92.9148985082444</v>
+        <v>49.3304096579913</v>
       </c>
       <c r="G23" t="n">
-        <v>77.8284654071549</v>
+        <v>30.5573046754171</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>103.877904140106</v>
+        <v>54.9516749081346</v>
       </c>
       <c r="G24" t="n">
-        <v>88.3264635301833</v>
+        <v>35.6549399344997</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>123.963320653633</v>
+        <v>52.8206164046769</v>
       </c>
       <c r="G25" t="n">
-        <v>102.856164150814</v>
+        <v>33.4438460883513</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>140.611821440682</v>
+        <v>56.3792825288709</v>
       </c>
       <c r="G26" t="n">
-        <v>119.368010690803</v>
+        <v>36.4952155671284</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>149.708051819309</v>
+        <v>55.2291152135722</v>
       </c>
       <c r="G27" t="n">
-        <v>131.387829388145</v>
+        <v>35.6305375044305</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>170.082336953196</v>
+        <v>57.1775305585984</v>
       </c>
       <c r="G28" t="n">
-        <v>149.977296142488</v>
+        <v>36.8697343869243</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>172.140598680902</v>
+        <v>57.1336729585349</v>
       </c>
       <c r="G29" t="n">
-        <v>155.226114909841</v>
+        <v>36.5746284191983</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>175.547348639107</v>
+        <v>58.5455085852656</v>
       </c>
       <c r="G30" t="n">
-        <v>158.979725689962</v>
+        <v>37.0090098439898</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>173.320215179504</v>
+        <v>56.8602453615339</v>
       </c>
       <c r="G31" t="n">
-        <v>158.893784765762</v>
+        <v>35.9993653054615</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.73314653225325</v>
+        <v>4.3357230524133</v>
       </c>
       <c r="G32" t="n">
-        <v>4.29954158072277</v>
+        <v>2.93287623433092</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>5.04638986185751</v>
+        <v>4.35604665845885</v>
       </c>
       <c r="G33" t="n">
-        <v>4.42691475217872</v>
+        <v>3.21771624028437</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>5.03079917358189</v>
+        <v>4.427361215938</v>
       </c>
       <c r="G34" t="n">
-        <v>4.47910189210793</v>
+        <v>3.24155875253562</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>5.32035163548029</v>
+        <v>4.42882150233434</v>
       </c>
       <c r="G35" t="n">
-        <v>4.71178545218728</v>
+        <v>3.24632882791935</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>5.43699721941208</v>
+        <v>4.66483839136332</v>
       </c>
       <c r="G36" t="n">
-        <v>4.79825583649993</v>
+        <v>3.43342573161025</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>5.42568408761497</v>
+        <v>4.56126698371599</v>
       </c>
       <c r="G37" t="n">
-        <v>5.00350989365236</v>
+        <v>3.31233226964947</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>5.61170923811024</v>
+        <v>4.5909530917292</v>
       </c>
       <c r="G38" t="n">
-        <v>5.1000481105407</v>
+        <v>3.3722534428687</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>5.56636270575188</v>
+        <v>4.52835831123909</v>
       </c>
       <c r="G39" t="n">
-        <v>5.00794986888384</v>
+        <v>3.19015355549819</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>5.47976706897923</v>
+        <v>4.68131156941239</v>
       </c>
       <c r="G40" t="n">
-        <v>5.1103049573982</v>
+        <v>3.35659882297542</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>5.63112893391703</v>
+        <v>4.52853713188423</v>
       </c>
       <c r="G41" t="n">
-        <v>5.12180517078787</v>
+        <v>3.22798387630567</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9225</v>
+        <v>0.942</v>
       </c>
       <c r="G42" t="n">
-        <v>0.939</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.91</v>
+        <v>0.9255</v>
       </c>
       <c r="G43" t="n">
-        <v>0.933</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9115</v>
+        <v>0.9155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9325</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.905</v>
+        <v>0.928</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9325</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.911</v>
+        <v>0.9205</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9325</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="47">
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9065</v>
+        <v>0.92</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9275</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.908</v>
+        <v>0.9275</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9245</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.908</v>
+        <v>0.9235</v>
       </c>
       <c r="G49" t="n">
-        <v>0.926</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9005</v>
+        <v>0.924</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9235</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9005</v>
+        <v>0.9255</v>
       </c>
       <c r="G51" t="n">
-        <v>0.926</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>33.1687091695329</v>
+        <v>27.0221079119197</v>
       </c>
       <c r="G52" t="n">
-        <v>33.0604693495968</v>
+        <v>25.4772671176394</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>33.8402617573452</v>
+        <v>27.5538145908827</v>
       </c>
       <c r="G53" t="n">
-        <v>33.888938129487</v>
+        <v>26.0094815033194</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>34.1714551699174</v>
+        <v>27.2867559602879</v>
       </c>
       <c r="G54" t="n">
-        <v>34.183572817332</v>
+        <v>26.148773946898</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>34.0821137997001</v>
+        <v>27.5804081341146</v>
       </c>
       <c r="G55" t="n">
-        <v>34.355380069223</v>
+        <v>26.1904702129901</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>33.998803325475</v>
+        <v>27.5288549906731</v>
       </c>
       <c r="G56" t="n">
-        <v>34.2137895451439</v>
+        <v>26.1505186826897</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>33.7594548929477</v>
+        <v>27.7509737815522</v>
       </c>
       <c r="G57" t="n">
-        <v>33.9032715298836</v>
+        <v>26.266525017082</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>33.4927303723789</v>
+        <v>27.762457792735</v>
       </c>
       <c r="G58" t="n">
-        <v>33.82359405536</v>
+        <v>26.147227004555</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>33.6725380441267</v>
+        <v>27.6823522370875</v>
       </c>
       <c r="G59" t="n">
-        <v>33.8576966173083</v>
+        <v>26.1137129422213</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>33.5738969304257</v>
+        <v>27.5781027595569</v>
       </c>
       <c r="G60" t="n">
-        <v>33.8606868688249</v>
+        <v>26.2741568366686</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>33.8559762585315</v>
+        <v>27.3628896977179</v>
       </c>
       <c r="G61" t="n">
-        <v>33.9703631903625</v>
+        <v>26.1895542940786</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>62.9508242775598</v>
+        <v>41.9460988257557</v>
       </c>
       <c r="G62" t="n">
-        <v>45.0643939631959</v>
+        <v>21.7350743944972</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>79.0459618285021</v>
+        <v>47.3579495808089</v>
       </c>
       <c r="G63" t="n">
-        <v>59.5745865151192</v>
+        <v>25.6263457282217</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>86.7561289794606</v>
+        <v>49.6405238517773</v>
       </c>
       <c r="G64" t="n">
-        <v>66.7257590545946</v>
+        <v>26.8275907245668</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>92.2164688528719</v>
+        <v>50.5045611863551</v>
       </c>
       <c r="G65" t="n">
-        <v>70.9866808721873</v>
+        <v>27.9450153391381</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>94.6439590761127</v>
+        <v>51.144785218642</v>
       </c>
       <c r="G66" t="n">
-        <v>72.4732529478147</v>
+        <v>29.5192284736151</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>97.0595448922226</v>
+        <v>49.556795225532</v>
       </c>
       <c r="G67" t="n">
-        <v>73.2507590279072</v>
+        <v>27.9914929165389</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>98.2874585166318</v>
+        <v>49.9722597982562</v>
       </c>
       <c r="G68" t="n">
-        <v>75.2890784048955</v>
+        <v>27.2762308837427</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>101.62000537437</v>
+        <v>51.5697690229797</v>
       </c>
       <c r="G69" t="n">
-        <v>78.6812233253419</v>
+        <v>28.5694386242526</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>99.9960939075263</v>
+        <v>51.6007553404193</v>
       </c>
       <c r="G70" t="n">
-        <v>79.0475270231361</v>
+        <v>29.4369845963312</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>103.645926336967</v>
+        <v>49.5919162159149</v>
       </c>
       <c r="G71" t="n">
-        <v>82.0480518201833</v>
+        <v>27.4268957626276</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.74201764028004</v>
+        <v>4.2610606524933</v>
       </c>
       <c r="G72" t="n">
-        <v>3.61842488832408</v>
+        <v>2.71207279274289</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.84461003215755</v>
+        <v>4.36749463942222</v>
       </c>
       <c r="G73" t="n">
-        <v>3.74820761231325</v>
+        <v>2.78600630200188</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>5.22835443147959</v>
+        <v>4.36696381253738</v>
       </c>
       <c r="G74" t="n">
-        <v>4.10727359788616</v>
+        <v>2.89422594784777</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>5.10116860627916</v>
+        <v>4.31061435986845</v>
       </c>
       <c r="G75" t="n">
-        <v>3.96069144689337</v>
+        <v>2.89466787594797</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.96330467761479</v>
+        <v>4.35017363649148</v>
       </c>
       <c r="G76" t="n">
-        <v>3.98697773848097</v>
+        <v>2.90991749316132</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>5.07052844064793</v>
+        <v>4.36292403517677</v>
       </c>
       <c r="G77" t="n">
-        <v>3.88687434256863</v>
+        <v>2.91350902652042</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.83563994034562</v>
+        <v>4.56385795584308</v>
       </c>
       <c r="G78" t="n">
-        <v>3.91691166101457</v>
+        <v>3.03411134024623</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>5.05646970292028</v>
+        <v>4.29667563212792</v>
       </c>
       <c r="G79" t="n">
-        <v>4.21093112370892</v>
+        <v>2.89133712825573</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>5.08031507577465</v>
+        <v>4.58019596388678</v>
       </c>
       <c r="G80" t="n">
-        <v>4.04071820825445</v>
+        <v>2.89521970869925</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>5.18084041117127</v>
+        <v>4.27906544794285</v>
       </c>
       <c r="G81" t="n">
-        <v>4.08616456292327</v>
+        <v>2.82678909113131</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.905</v>
+        <v>0.9315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9155</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8785</v>
+        <v>0.9155</v>
       </c>
       <c r="G83" t="n">
-        <v>0.894</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8785</v>
+        <v>0.9215</v>
       </c>
       <c r="G84" t="n">
-        <v>0.89</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.871</v>
+        <v>0.914</v>
       </c>
       <c r="G85" t="n">
-        <v>0.885</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.861</v>
+        <v>0.914</v>
       </c>
       <c r="G86" t="n">
-        <v>0.873</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8565</v>
+        <v>0.9155</v>
       </c>
       <c r="G87" t="n">
-        <v>0.871</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8565</v>
+        <v>0.9095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.871</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.864</v>
+        <v>0.915</v>
       </c>
       <c r="G89" t="n">
-        <v>0.874</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8575</v>
+        <v>0.9035</v>
       </c>
       <c r="G90" t="n">
-        <v>0.869</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.859</v>
+        <v>0.902</v>
       </c>
       <c r="G91" t="n">
-        <v>0.872</v>
+        <v>0.9335</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>35.0648461822926</v>
+        <v>27.49405338427</v>
       </c>
       <c r="G92" t="n">
-        <v>36.8591522714004</v>
+        <v>27.009641623427</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>35.674995350735</v>
+        <v>28.0659117559938</v>
       </c>
       <c r="G93" t="n">
-        <v>37.5837433377108</v>
+        <v>27.6701006086105</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>35.4956162083376</v>
+        <v>28.255888495609</v>
       </c>
       <c r="G94" t="n">
-        <v>37.4386700775072</v>
+        <v>27.7509363239355</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>35.6753755528801</v>
+        <v>28.2750780551094</v>
       </c>
       <c r="G95" t="n">
-        <v>37.6721853202077</v>
+        <v>27.9226831139763</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>35.7952282113963</v>
+        <v>27.9810385235594</v>
       </c>
       <c r="G96" t="n">
-        <v>37.5631462890476</v>
+        <v>27.6072314955641</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>35.7052887545307</v>
+        <v>28.4622191263109</v>
       </c>
       <c r="G97" t="n">
-        <v>37.8392813871495</v>
+        <v>28.2571772145378</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>35.5581184577078</v>
+        <v>28.5857486609146</v>
       </c>
       <c r="G98" t="n">
-        <v>37.6658749495528</v>
+        <v>28.5072473717879</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>35.7583533970946</v>
+        <v>28.6724254630141</v>
       </c>
       <c r="G99" t="n">
-        <v>37.5555061018629</v>
+        <v>28.298206219759</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>35.6713473550687</v>
+        <v>28.4414352066609</v>
       </c>
       <c r="G100" t="n">
-        <v>37.4147070420376</v>
+        <v>28.4126404169182</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>35.551864824723</v>
+        <v>28.5006901266074</v>
       </c>
       <c r="G101" t="n">
-        <v>37.4477406999756</v>
+        <v>28.3605739751766</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>75.3401357657692</v>
+        <v>46.5232501650802</v>
       </c>
       <c r="G102" t="n">
-        <v>67.8068921036045</v>
+        <v>30.7518555116894</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>92.7252361371669</v>
+        <v>50.7465073592563</v>
       </c>
       <c r="G103" t="n">
-        <v>84.7073723658225</v>
+        <v>33.0640130023615</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>107.648020925251</v>
+        <v>51.2056038046888</v>
       </c>
       <c r="G104" t="n">
-        <v>97.2583258225538</v>
+        <v>33.9610837996981</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>114.924365372456</v>
+        <v>51.6178752523839</v>
       </c>
       <c r="G105" t="n">
-        <v>104.346924507869</v>
+        <v>34.1165354700414</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>123.191743329081</v>
+        <v>50.730373881274</v>
       </c>
       <c r="G106" t="n">
-        <v>116.474977058337</v>
+        <v>34.4717566819976</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>128.909152957867</v>
+        <v>55.8589122647009</v>
       </c>
       <c r="G107" t="n">
-        <v>120.383195294628</v>
+        <v>38.4323075263063</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>125.064853601089</v>
+        <v>55.4686574215443</v>
       </c>
       <c r="G108" t="n">
-        <v>117.320675437727</v>
+        <v>36.0196257628105</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>131.766986601032</v>
+        <v>57.7645595958411</v>
       </c>
       <c r="G109" t="n">
-        <v>122.057278165408</v>
+        <v>37.3335596113615</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>132.232338569259</v>
+        <v>59.7208790695522</v>
       </c>
       <c r="G110" t="n">
-        <v>122.811893365983</v>
+        <v>39.4266315965211</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>136.397553563903</v>
+        <v>58.6954929608537</v>
       </c>
       <c r="G111" t="n">
-        <v>128.199781537166</v>
+        <v>38.4521529835161</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.81307777618471</v>
+        <v>4.36796155874783</v>
       </c>
       <c r="G112" t="n">
-        <v>4.37969851304957</v>
+        <v>3.16274869283811</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>5.23026265613</v>
+        <v>4.22459352911843</v>
       </c>
       <c r="G113" t="n">
-        <v>4.66675680080935</v>
+        <v>3.16018242998846</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>5.3835560286684</v>
+        <v>4.5394524542586</v>
       </c>
       <c r="G114" t="n">
-        <v>4.83909483020971</v>
+        <v>3.29632773850662</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>5.50652853415162</v>
+        <v>4.236880876325</v>
       </c>
       <c r="G115" t="n">
-        <v>5.1036764466599</v>
+        <v>3.39631821848991</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>5.58242993695613</v>
+        <v>4.57606584157027</v>
       </c>
       <c r="G116" t="n">
-        <v>5.19786203008445</v>
+        <v>3.40071810861761</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>5.48473631601191</v>
+        <v>4.5210607164251</v>
       </c>
       <c r="G117" t="n">
-        <v>5.14581893710994</v>
+        <v>3.38325969460279</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>5.42353939532824</v>
+        <v>4.48305023232508</v>
       </c>
       <c r="G118" t="n">
-        <v>5.03036003832841</v>
+        <v>3.28477976490662</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>5.83501475595154</v>
+        <v>4.54658048282921</v>
       </c>
       <c r="G119" t="n">
-        <v>5.21182973360795</v>
+        <v>3.38732722853398</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>5.51807119467203</v>
+        <v>4.60721560038511</v>
       </c>
       <c r="G120" t="n">
-        <v>5.08316479029982</v>
+        <v>3.5127734941034</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>5.46799943357294</v>
+        <v>4.75182690595764</v>
       </c>
       <c r="G121" t="n">
-        <v>5.02384516127667</v>
+        <v>3.53317251509835</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9305</v>
+        <v>0.9375</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9465</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9185</v>
+        <v>0.933</v>
       </c>
       <c r="G123" t="n">
-        <v>0.935</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9065</v>
+        <v>0.936</v>
       </c>
       <c r="G124" t="n">
-        <v>0.924</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.905</v>
+        <v>0.937</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9235</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.91</v>
+        <v>0.9235</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9245</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8985</v>
+        <v>0.9245</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9155</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.902</v>
+        <v>0.9235</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9195</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.899</v>
+        <v>0.9185</v>
       </c>
       <c r="G129" t="n">
-        <v>0.918</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.898</v>
+        <v>0.925</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9115</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9</v>
+        <v>0.928</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9195</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>32.8172737908828</v>
+        <v>27.254777502437</v>
       </c>
       <c r="G132" t="n">
-        <v>32.9821417822697</v>
+        <v>25.8430220236936</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>33.0140738850754</v>
+        <v>27.3563958538945</v>
       </c>
       <c r="G133" t="n">
-        <v>33.570270929771</v>
+        <v>26.2093387205965</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>32.9712054558419</v>
+        <v>27.4190001965676</v>
       </c>
       <c r="G134" t="n">
-        <v>33.650944093752</v>
+        <v>26.3018647325487</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>32.9120700560388</v>
+        <v>27.6124698284317</v>
       </c>
       <c r="G135" t="n">
-        <v>33.3539766504604</v>
+        <v>26.3631594875691</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>33.1116151209224</v>
+        <v>27.6855719269715</v>
       </c>
       <c r="G136" t="n">
-        <v>33.5730113874564</v>
+        <v>26.701175300774</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>33.1151374205026</v>
+        <v>27.9121450101</v>
       </c>
       <c r="G137" t="n">
-        <v>33.6595966988514</v>
+        <v>26.7637120358982</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>33.1460350801544</v>
+        <v>27.9780203237905</v>
       </c>
       <c r="G138" t="n">
-        <v>33.658557684542</v>
+        <v>26.6207477689299</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>33.0560667673246</v>
+        <v>27.8493257806199</v>
       </c>
       <c r="G139" t="n">
-        <v>33.273922048681</v>
+        <v>26.8057689370375</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>32.8969171515298</v>
+        <v>28.0018008430968</v>
       </c>
       <c r="G140" t="n">
-        <v>33.3471404567088</v>
+        <v>26.912833179499</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>33.0087324634814</v>
+        <v>27.6614153778965</v>
       </c>
       <c r="G141" t="n">
-        <v>33.6906598924011</v>
+        <v>26.8320583772355</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>53.6175187668309</v>
+        <v>43.2805946324101</v>
       </c>
       <c r="G142" t="n">
-        <v>39.8663513329776</v>
+        <v>24.0793351525694</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>72.1932504461177</v>
+        <v>43.6625655439695</v>
       </c>
       <c r="G143" t="n">
-        <v>56.4977252881331</v>
+        <v>24.596934479355</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>87.7697010199699</v>
+        <v>47.7484708666048</v>
       </c>
       <c r="G144" t="n">
-        <v>70.0772990272026</v>
+        <v>27.6695892500203</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>92.064759580742</v>
+        <v>48.22325629944</v>
       </c>
       <c r="G145" t="n">
-        <v>75.0451451638236</v>
+        <v>27.8868762327759</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>95.9466746455034</v>
+        <v>51.9818070394933</v>
       </c>
       <c r="G146" t="n">
-        <v>80.66212928731</v>
+        <v>30.8920741573934</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>104.199222380317</v>
+        <v>51.1515033693133</v>
       </c>
       <c r="G147" t="n">
-        <v>88.8744434436766</v>
+        <v>29.6835487467378</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>109.388895042621</v>
+        <v>53.4168405867422</v>
       </c>
       <c r="G148" t="n">
-        <v>94.8726515866744</v>
+        <v>32.0936433288019</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>100.079527566363</v>
+        <v>54.7229894786721</v>
       </c>
       <c r="G149" t="n">
-        <v>86.0356308386104</v>
+        <v>32.2327232570988</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>98.7866600903044</v>
+        <v>55.4099277398801</v>
       </c>
       <c r="G150" t="n">
-        <v>82.6485019036437</v>
+        <v>33.3826432096413</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>99.7573337364125</v>
+        <v>50.8209731493614</v>
       </c>
       <c r="G151" t="n">
-        <v>83.651751247486</v>
+        <v>30.6510469023508</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>4.34184353822697</v>
+        <v>4.07734874869556</v>
       </c>
       <c r="G152" t="n">
-        <v>3.70571316508084</v>
+        <v>2.88692938673202</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.77697052666029</v>
+        <v>4.26314140428922</v>
       </c>
       <c r="G153" t="n">
-        <v>4.00741518209234</v>
+        <v>2.8277290144083</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.92961390035701</v>
+        <v>4.33745367519361</v>
       </c>
       <c r="G154" t="n">
-        <v>4.06479667845349</v>
+        <v>2.92497565600414</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.80851397295644</v>
+        <v>4.36660540822581</v>
       </c>
       <c r="G155" t="n">
-        <v>4.08697576519064</v>
+        <v>3.0148737621398</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.90522816760246</v>
+        <v>4.43446016430752</v>
       </c>
       <c r="G156" t="n">
-        <v>4.08484460541657</v>
+        <v>3.17953773492349</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>5.16678458351156</v>
+        <v>4.49634685308723</v>
       </c>
       <c r="G157" t="n">
-        <v>4.19535209672996</v>
+        <v>3.1004852767271</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>5.01301545703215</v>
+        <v>4.42539689672444</v>
       </c>
       <c r="G158" t="n">
-        <v>4.19016338767158</v>
+        <v>3.04667422546396</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.77574360102099</v>
+        <v>4.42401968658852</v>
       </c>
       <c r="G159" t="n">
-        <v>3.95234639603569</v>
+        <v>3.18073708612364</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.94208936051076</v>
+        <v>4.53927939881918</v>
       </c>
       <c r="G160" t="n">
-        <v>3.9523362377787</v>
+        <v>3.13785153644184</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>5.19406714774386</v>
+        <v>4.40075535224934</v>
       </c>
       <c r="G161" t="n">
-        <v>4.14652840223478</v>
+        <v>3.0487147719382</v>
       </c>
     </row>
   </sheetData>
